--- a/data/trans_camb/P41A_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P41A_R2-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-2.441072417956897</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-5.455733310035448</v>
+        <v>-5.455733310035446</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.237041072771299</v>
@@ -655,7 +655,7 @@
         <v>-4.426527267145588</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-7.838102817535034</v>
+        <v>-7.838102817535029</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.6173885066322438</v>
@@ -664,7 +664,7 @@
         <v>-3.635206860034929</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-6.675794926395631</v>
+        <v>-6.675794926395634</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.871324006900571</v>
+        <v>-5.592356306700148</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.204832036537886</v>
+        <v>-6.336261850571045</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.02287400210784</v>
+        <v>-10.23430735565698</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.854330435617896</v>
+        <v>-2.570463127764372</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-7.240585237946716</v>
+        <v>-7.158230057963895</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-11.14170768905016</v>
+        <v>-10.56615031762879</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.075717559104449</v>
+        <v>-2.938634711501357</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.890107731402492</v>
+        <v>-6.10066634559362</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-9.252058229360044</v>
+        <v>-9.392916342808478</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.569240090868948</v>
+        <v>2.176030791832864</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.648122418934399</v>
+        <v>1.826510138810279</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.4338721168250438</v>
+        <v>-0.0697394603446268</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.114782457857664</v>
+        <v>3.080704000391368</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-1.654503618769759</v>
+        <v>-1.510907483844046</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-5.092479215625013</v>
+        <v>-4.554154954407213</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.85523155353885</v>
+        <v>1.56476380907972</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.091399946143126</v>
+        <v>-1.09994515493459</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-3.638540740999146</v>
+        <v>-3.45995383790194</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.1026091921213213</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.229328873348486</v>
+        <v>-0.2293288733484858</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.01432810538736371</v>
@@ -760,7 +760,7 @@
         <v>-0.2675643863833391</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.4737793408275207</v>
+        <v>-0.4737793408275204</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.03128857244323644</v>
@@ -769,7 +769,7 @@
         <v>-0.1842282970358307</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.3383219657102234</v>
+        <v>-0.3383219657102235</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1912520636485776</v>
+        <v>-0.2160119526118773</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2475754657540607</v>
+        <v>-0.2451669682471362</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3998063600571458</v>
+        <v>-0.4072671806029088</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1609890860948089</v>
+        <v>-0.143593236287675</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4092881468971551</v>
+        <v>-0.4048046409497794</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6156705818719371</v>
+        <v>-0.6121663094137988</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1484356041404345</v>
+        <v>-0.1423026359670884</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2827961400788973</v>
+        <v>-0.2890234257291441</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4467215970184343</v>
+        <v>-0.461544987930203</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1182338071135071</v>
+        <v>0.09939194343528561</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.07672617205813347</v>
+        <v>0.08717344293192422</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.01705105526497045</v>
+        <v>-0.004575842781922347</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2013310459330595</v>
+        <v>0.1997317167197393</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1083428938281864</v>
+        <v>-0.09456290671276527</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3082100737325059</v>
+        <v>-0.307039512897244</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1019740571682161</v>
+        <v>0.0825565537735867</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.05829108770869934</v>
+        <v>-0.05732387134543613</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1920224222376347</v>
+        <v>-0.1874678772798975</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-7.497211315203161</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-14.65082681102986</v>
+        <v>-14.65082681102985</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-4.084717746795919</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.516894731815446</v>
+        <v>-6.484525859322996</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-12.53115625669884</v>
+        <v>-12.84105266974963</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-18.56286262872046</v>
+        <v>-18.71271137400888</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.593574182452638</v>
+        <v>-8.599654511243815</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-10.7978895598851</v>
+        <v>-10.36669763662151</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-18.18282155856392</v>
+        <v>-17.87755824454539</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-6.500903273883081</v>
+        <v>-6.668174588356584</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-10.85173398258014</v>
+        <v>-10.87391258160037</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-17.41845151708149</v>
+        <v>-17.3024457334307</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03686576495250531</v>
+        <v>-0.0458951735466345</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-6.454563976886067</v>
+        <v>-6.203900328026665</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-10.79658935066927</v>
+        <v>-11.39278021374859</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.520296984199275</v>
+        <v>-1.70829501614982</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-3.790040585538631</v>
+        <v>-3.984330643824797</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-11.37240997601545</v>
+        <v>-11.37481229447185</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-1.721714923781926</v>
+        <v>-1.806692937549558</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-6.141665451500623</v>
+        <v>-6.170136757365958</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-12.30724528305413</v>
+        <v>-12.23256498367291</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.1371656061693017</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2680449377678921</v>
+        <v>-0.268044937767892</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.07034045275720922</v>
@@ -983,7 +983,7 @@
         <v>-0.1481855229512787</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2543192475975796</v>
+        <v>-0.2543192475975797</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1028216383321455</v>
+        <v>-0.103925282517455</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2011099328996157</v>
+        <v>-0.2048743046208953</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2949596311354037</v>
+        <v>-0.2971398094528884</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1538142178199075</v>
+        <v>-0.1519560083850975</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1903659869999297</v>
+        <v>-0.186919058775393</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3231757558823874</v>
+        <v>-0.3187910501304836</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1093930002514898</v>
+        <v>-0.111554659111947</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1844433952678905</v>
+        <v>-0.1832768834258736</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.295313226473184</v>
+        <v>-0.2908296336882855</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.001027164024892233</v>
+        <v>-0.0007770381722240853</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1085960707977387</v>
+        <v>-0.1050989404957945</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1814097238398694</v>
+        <v>-0.1881442012759025</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.02938907443178326</v>
+        <v>-0.03200393442639639</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.07187634985421383</v>
+        <v>-0.07695464556078459</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2148553620125164</v>
+        <v>-0.2142985455838106</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.02981319165847302</v>
+        <v>-0.03132864570201386</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1090847924123597</v>
+        <v>-0.1084318945371532</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.2159442123189306</v>
+        <v>-0.2130386322204057</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-2.238976971830131</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-14.51974943122447</v>
+        <v>-14.51974943122448</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.108066425705236</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.937052984346148</v>
+        <v>-1.346060048350726</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-10.98837981008568</v>
+        <v>-11.01498106631756</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-23.67624525475627</v>
+        <v>-24.1051398650279</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.10263894849148</v>
+        <v>-5.833644107625154</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.301776567535187</v>
+        <v>-8.563179454240796</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-20.3166161230446</v>
+        <v>-21.20961368529276</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.344529628860712</v>
+        <v>-1.636430952397775</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-8.186315030158998</v>
+        <v>-8.26566862282781</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-20.27661550006082</v>
+        <v>-20.24079555431043</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.8743810928279</v>
+        <v>11.34901005863119</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.508764373715763</v>
+        <v>1.379126402060209</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-11.40930194736187</v>
+        <v>-11.09455091921845</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.036129144546056</v>
+        <v>7.565941076204035</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.050551510271672</v>
+        <v>3.933551886211789</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-8.312192716412637</v>
+        <v>-8.565733080814246</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.945542902412353</v>
+        <v>7.950188705018416</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.818288272120152</v>
+        <v>0.841173593771691</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-11.53802049308925</v>
+        <v>-11.30700332259579</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.03759037610056782</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2437733165069565</v>
+        <v>-0.2437733165069567</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.0504567016327733</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.02948873020845756</v>
+        <v>-0.02026603484316137</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1651667925601645</v>
+        <v>-0.1685842764768182</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3578417687905877</v>
+        <v>-0.361955432468048</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.08147091879234847</v>
+        <v>-0.09364533535149985</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1311138237295571</v>
+        <v>-0.1361820950789807</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3246719941667501</v>
+        <v>-0.3330813044431916</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.02130195461929026</v>
+        <v>-0.02554161628804839</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1288301500622488</v>
+        <v>-0.1303186392742927</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3176116975466211</v>
+        <v>-0.3212479702575418</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1808481148914252</v>
+        <v>0.1903909522035702</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.02539524598543886</v>
+        <v>0.02235903871506956</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1859382256150806</v>
+        <v>-0.180555760572499</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1425796534363943</v>
+        <v>0.1377102268007096</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.08991475178225086</v>
+        <v>0.07041138256135933</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1493632264397562</v>
+        <v>-0.1529449753888961</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1342250643729064</v>
+        <v>0.1332328367041376</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.01283150715684298</v>
+        <v>0.01387130170593193</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1896315716191944</v>
+        <v>-0.1926842106484051</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-1.657498221073955</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-5.712750808734201</v>
+        <v>-5.712750808734207</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-1.207701922165361</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.057662039042465</v>
+        <v>-2.946617233750175</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.215944885471937</v>
+        <v>-6.207709113743233</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-11.179581478484</v>
+        <v>-10.9672024168317</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.083319687932912</v>
+        <v>-4.245776966854113</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.065022123026255</v>
+        <v>-3.998312196877687</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-8.193232484473906</v>
+        <v>-8.21772331775567</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.98465849158628</v>
+        <v>-2.874366338337941</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.406869539989542</v>
+        <v>-4.470645278880729</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-8.72450524267696</v>
+        <v>-8.658045330671893</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.016004778416475</v>
+        <v>2.043228135962946</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.425057143426114</v>
+        <v>-1.269939256590432</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-5.403675841928861</v>
+        <v>-5.234676178472179</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6660299541281576</v>
+        <v>0.3652253382482599</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6568866019642662</v>
+        <v>0.6603331331851539</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-3.418005052939189</v>
+        <v>-3.544883902379759</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.477767050555109</v>
+        <v>0.6489076913722528</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.920298252770902</v>
+        <v>-1.062342396211303</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-4.953398901684118</v>
+        <v>-4.973075958084742</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.04092654121300805</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1410578475684973</v>
+        <v>-0.1410578475684974</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.02678726997548541</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05939960242482396</v>
+        <v>-0.05752710058606965</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1224413065629414</v>
+        <v>-0.120233126963086</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2201307746367882</v>
+        <v>-0.2161755765683535</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.09853363581079232</v>
+        <v>-0.1009951528267136</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.09607150090660897</v>
+        <v>-0.09591072146748315</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1982437921847741</v>
+        <v>-0.1965541396306665</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.06459031656155985</v>
+        <v>-0.06215289997589509</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.09637436430841849</v>
+        <v>-0.09603535800782392</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1901113474017421</v>
+        <v>-0.1884625533783723</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.04173860396355924</v>
+        <v>0.04159128252993648</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.02930560934480409</v>
+        <v>-0.02563752279824268</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1100551513003896</v>
+        <v>-0.1075319264420264</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.01716982269841864</v>
+        <v>0.009263528061184113</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.01717440645589857</v>
+        <v>0.01617626745693732</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.08693864435610225</v>
+        <v>-0.08766753380612342</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01099334632995332</v>
+        <v>0.0146344735990984</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.02047354060256337</v>
+        <v>-0.02293831630429532</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1125092177825721</v>
+        <v>-0.1120414290558227</v>
       </c>
     </row>
     <row r="28">
